--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:26:04+00:00</t>
+    <t>2025-10-28T16:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:05:01+00:00</t>
+    <t>2025-10-28T16:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-composition</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-composition</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:06:33+00:00</t>
+    <t>2025-10-28T16:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1357,7 +1357,7 @@
     <t>compositionSourcing</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-sources}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-sources}
 </t>
   </si>
   <si>
@@ -1544,7 +1544,7 @@
     <t>Composition.section.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-medicationstatement)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-medicationstatement)
 </t>
   </si>
   <si>
@@ -1955,7 +1955,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:48+00:00</t>
+    <t>2025-10-28T16:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:35+00:00</t>
+    <t>2025-10-28T16:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:42:48+00:00</t>
+    <t>2025-10-28T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:58:49+00:00</t>
+    <t>2025-10-28T17:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
